--- a/public/template_barang.xlsx
+++ b/public/template_barang.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90EC8D13-7E51-4EAB-BC8E-8FC4B6255402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D284DBD8-7A2D-4ECC-AF05-5FEBE6B31585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{41439634-6742-47B9-A268-E65D47C542DD}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="14400" windowHeight="8170" xr2:uid="{615AF17E-BC5D-43ED-93A8-D3A81D3AE02F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>kategori_id</t>
   </si>
@@ -51,50 +52,45 @@
     <t>harga_jual</t>
   </si>
   <si>
-    <t>SBK-003</t>
-  </si>
-  <si>
-    <t>Telur Omega(10 butir)</t>
-  </si>
-  <si>
-    <t>SNK-003</t>
-  </si>
-  <si>
-    <t>Sari Roti</t>
-  </si>
-  <si>
-    <t>MND-003</t>
-  </si>
-  <si>
-    <t>Shampo Pantene</t>
-  </si>
-  <si>
-    <t>BAY-003</t>
-  </si>
-  <si>
-    <t>Baju Bayi 2th</t>
-  </si>
-  <si>
-    <t>MNM-003</t>
-  </si>
-  <si>
-    <t>Cleo 600ml</t>
+    <t>B011</t>
+  </si>
+  <si>
+    <t>B012</t>
+  </si>
+  <si>
+    <t>B013</t>
+  </si>
+  <si>
+    <t>B014</t>
+  </si>
+  <si>
+    <t>B015</t>
+  </si>
+  <si>
+    <t>Gula Pasir</t>
+  </si>
+  <si>
+    <t>Deterjen Bubuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	12000</t>
+  </si>
+  <si>
+    <t>Power Bank</t>
+  </si>
+  <si>
+    <t>Mouse Wireless</t>
+  </si>
+  <si>
+    <t>Deodoran</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -124,7 +120,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -143,7 +141,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -438,36 +436,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2623A51F-FEF8-4613-B3D1-6F097061C79C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A93045A-01B2-4F93-AE09-36DD2BEF83AC}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" customWidth="1"/>
-    <col min="3" max="3" width="20.08984375" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -479,13 +477,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>22000</v>
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>25000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -493,16 +491,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>11500</v>
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>30000</v>
       </c>
       <c r="E3">
-        <v>12500</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -510,16 +508,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>17500</v>
+        <v>50000</v>
       </c>
       <c r="E4">
-        <v>18500</v>
+        <v>67000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -527,16 +525,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>89000</v>
+        <v>42000</v>
       </c>
       <c r="E5">
-        <v>92500</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -544,16 +542,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>3750</v>
+        <v>15000</v>
       </c>
       <c r="E6">
-        <v>4300</v>
+        <v>18000</v>
       </c>
     </row>
   </sheetData>
